--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-741165.2370083107</v>
+        <v>-743700.2078841652</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>96.42179912612296</v>
+        <v>357.0621555633459</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>161.9551089015799</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>172.8235319117316</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>200.0704852179757</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>205.6368254889297</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>135.4371632022867</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247586</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>60.46703575713345</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>278.4577623394762</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>51.86882667667179</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>41.84212836818404</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>63.10700780326998</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>91.79944118750103</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>126.4418041083155</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>77.3950726440254</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>1.839588425939337</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>140.7215037338362</v>
+        <v>63.841556412593</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.397829669574</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,13 +3430,13 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002296</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
@@ -3667,10 +3667,10 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.136400530892</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2014.778044008243</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C2" t="n">
-        <v>1645.815527067831</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="D2" t="n">
-        <v>1287.549828461081</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008243</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>2014.778044008243</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.4482993600903</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>746.3177816649207</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T4" t="n">
-        <v>524.5511662344468</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U4" t="n">
-        <v>235.4482993600903</v>
+        <v>527.1097224349345</v>
       </c>
       <c r="V4" t="n">
-        <v>235.4482993600903</v>
+        <v>527.1097224349345</v>
       </c>
       <c r="W4" t="n">
-        <v>235.4482993600903</v>
+        <v>527.1097224349345</v>
       </c>
       <c r="X4" t="n">
-        <v>235.4482993600903</v>
+        <v>527.1097224349345</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.4482993600903</v>
+        <v>527.1097224349345</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.069587875903</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>1528.069587875903</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1528.069587875903</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1142.281335277659</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>731.2954304880514</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>316.2229803330478</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3078.509937780421</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3078.509937780421</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2747.447050436851</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176916</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915837</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.669427940025</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927764</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4659,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>127.5899303282778</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="C7" t="n">
-        <v>127.5899303282778</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D7" t="n">
-        <v>127.5899303282778</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E7" t="n">
-        <v>127.5899303282778</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>127.5899303282778</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757121</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757121</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757121</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757121</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>576.3720603698252</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>576.3720603698252</v>
+        <v>639.6165388086131</v>
       </c>
       <c r="X7" t="n">
-        <v>348.3825094718079</v>
+        <v>639.6165388086131</v>
       </c>
       <c r="Y7" t="n">
-        <v>127.5899303282778</v>
+        <v>639.6165388086131</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1672.191441142817</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1303.228924202405</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>944.9632255956549</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>944.9632255956549</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>533.9773208060474</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>118.9048706510438</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.243802269321</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>381.6654861422326</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>857.1425534916496</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>857.1425534916496</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>857.1425534916496</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>602.4580652857627</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W10" t="n">
-        <v>602.4580652857627</v>
+        <v>573.4758093420951</v>
       </c>
       <c r="X10" t="n">
-        <v>602.4580652857627</v>
+        <v>345.4862584440777</v>
       </c>
       <c r="Y10" t="n">
-        <v>381.6654861422326</v>
+        <v>345.4862584440777</v>
       </c>
     </row>
     <row r="11">
@@ -5021,43 +5021,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5361,22 +5361,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>633.9926444679666</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>486.0795508855734</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1896033876631</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>171.993504102543</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>171.993504102543</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,31 +5501,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5601,10 +5601,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782884</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.741944003827</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797672</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910802</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.56011257081</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279795</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853354</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580253</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832656</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2237.774446768175</v>
+        <v>2382.47666296148</v>
       </c>
       <c r="T19" t="n">
-        <v>2018.172981791116</v>
+        <v>2162.875197984421</v>
       </c>
       <c r="U19" t="n">
-        <v>1729.097755135313</v>
+        <v>1873.799971328619</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.097755135313</v>
+        <v>1619.115483122732</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>699.73118040114</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>699.73118040114</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>699.73118040114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5969,22 +5969,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,31 +6221,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6373,7 +6373,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,13 +7075,13 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7366,13 +7366,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,25 +7567,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,16 +7840,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>285.5085709461388</v>
+        <v>24.86821450891586</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>17.87687128035735</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>16.94549341971029</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9313778606293321</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>31.13893193492464</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016518</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>99.26785128072164</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462297</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3.870763674540129</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>40.30478226780843</v>
+        <v>117.1847295890516</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.186823682520753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.583178160801231e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1001810.41393977</v>
+        <v>1001810.413939769</v>
       </c>
     </row>
     <row r="3">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254694</v>
+        <v>207271.1201254693</v>
       </c>
       <c r="C2" t="n">
+        <v>246312.5309592849</v>
+      </c>
+      <c r="D2" t="n">
         <v>246312.530959285</v>
-      </c>
-      <c r="D2" t="n">
-        <v>246312.5309592849</v>
       </c>
       <c r="E2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="G2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="H2" t="n">
         <v>242143.9799070019</v>
       </c>
       <c r="I2" t="n">
-        <v>242143.9799070016</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="K2" t="n">
         <v>242143.9799070018</v>
@@ -26347,7 +26347,7 @@
         <v>246312.5309592848</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="O2" t="n">
         <v>246312.530959285</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104482.7459291436</v>
+        <v>104482.7459291435</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19318.2378118097</v>
+        <v>19318.23781180946</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186728</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186728</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186728</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496087</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496083</v>
       </c>
       <c r="O4" t="n">
+        <v>22817.55530496083</v>
+      </c>
+      <c r="P4" t="n">
         <v>22817.55530496084</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22817.55530496083</v>
       </c>
     </row>
     <row r="5">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1248725.803975326</v>
+        <v>-1249051.149065607</v>
       </c>
       <c r="C6" t="n">
-        <v>44781.84629383951</v>
+        <v>44781.84629383887</v>
       </c>
       <c r="D6" t="n">
-        <v>44781.84629383864</v>
+        <v>44781.84629383913</v>
       </c>
       <c r="E6" t="n">
-        <v>-199217.7077661278</v>
+        <v>-199252.4456915635</v>
       </c>
       <c r="F6" t="n">
-        <v>126194.7540412274</v>
+        <v>126160.0161157917</v>
       </c>
       <c r="G6" t="n">
-        <v>126194.7540412274</v>
+        <v>126160.0161157917</v>
       </c>
       <c r="H6" t="n">
-        <v>126194.7540412275</v>
+        <v>126160.0161157917</v>
       </c>
       <c r="I6" t="n">
-        <v>126194.7540412271</v>
+        <v>126160.0161157916</v>
       </c>
       <c r="J6" t="n">
-        <v>-91336.44835605015</v>
+        <v>-91371.18628148576</v>
       </c>
       <c r="K6" t="n">
-        <v>126194.7540412273</v>
+        <v>126160.0161157916</v>
       </c>
       <c r="L6" t="n">
-        <v>126194.7540412274</v>
+        <v>126160.0161157917</v>
       </c>
       <c r="M6" t="n">
-        <v>15848.11387126491</v>
+        <v>15848.11387126504</v>
       </c>
       <c r="N6" t="n">
-        <v>120330.8598004088</v>
+        <v>120330.8598004085</v>
       </c>
       <c r="O6" t="n">
         <v>120330.8598004088</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>86.14135298763719</v>
       </c>
       <c r="V4" t="n">
-        <v>251.2062654631987</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>88.97093889839078</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>68.48080693733348</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.595168441781425e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>105.5587725018948</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27831,16 +27831,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>8.065235997114826</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>242.7389377106487</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>344.3958102878696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>126.6620175281719</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>194.72355714909</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.005947602801767e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-5.005947602801767e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-7.211661662081734e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32081,25 +32081,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32716,7 +32716,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.046483262946</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>510.7887951929326</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
